--- a/I2C address map/I2C address map.xlsx
+++ b/I2C address map/I2C address map.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\OneDrive\ドキュメント\2025年\20250219_I2Cアドレス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morit\OneDrive\ドキュメント\2025年\20250219_I2Cアドレス\I2C address map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC8216-6445-4317-9854-C7E2E06A8A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6B4819-C8A7-4225-805D-C97C9694EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3FE6A811-E30B-4261-BA24-6ED72BC0A9A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FE6A811-E30B-4261-BA24-6ED72BC0A9A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="I2C address map" sheetId="1" r:id="rId1"/>
+    <sheet name="I2C adress map" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+  <si>
+    <t>Leaf</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>デバイス</t>
     <phoneticPr fontId="1"/>
@@ -460,6 +464,34 @@
   </si>
   <si>
     <t>010 0001</t>
+  </si>
+  <si>
+    <t>セキュアチップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>110 0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATECC608A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100 0011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCA9536BDTMR</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Solor 3.2V</t>
@@ -1039,337 +1071,333 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="18.58203125" customWidth="1"/>
-    <col min="6" max="6" width="20.58203125" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="12.58203125" customWidth="1"/>
-    <col min="9" max="9" width="20.58203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" s="5"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" s="5"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10" t="s">
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="F9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="I11" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="D12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="5"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="G16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="H17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="F18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="12" t="s">
         <v>36</v>
       </c>
@@ -1380,247 +1408,286 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
       <c r="C24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B25" s="5"/>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B27" s="5"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="5"/>
+      <c r="C28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="2:9" ht="54" x14ac:dyDescent="0.4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B30" s="5"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B31" s="5"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B32" s="5"/>
+      <c r="C32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="5"/>
+      <c r="C33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="D33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="5"/>
-      <c r="C25" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="2:9" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="5"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="5"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="5"/>
-      <c r="C29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="8"/>
+      <c r="H33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
